--- a/JuvShad_2025.xlsx
+++ b/JuvShad_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scdnradmin\data\Bonneau\Userdata\HoffmanKy\SCDNR\Compliance report\JAI-Shad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Desktop\SCDNR\Analyses\JAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C2AECD-3CB9-4430-8D6D-0CB27C26CB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C09397-2661-4079-A253-EC2D58502F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1FBA753E-B769-4D4B-8AAC-2961CC58B177}"/>
+    <workbookView xWindow="13155" yWindow="0" windowWidth="13470" windowHeight="14265" activeTab="1" xr2:uid="{1FBA753E-B769-4D4B-8AAC-2961CC58B177}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lengths!$A$1:$F$630</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Shad&amp;herring'!$A$1:$V$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Shad&amp;herring'!$A$1:$V$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>20% cloud</t>
+  </si>
+  <si>
+    <t>100% cloud</t>
   </si>
 </sst>
 </file>
@@ -1024,16 +1027,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q88" sqref="Q88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -1124,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>45810</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>45810</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>45810</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>45810</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>45810</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>45810</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45810</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>45824</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>45824</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>45824</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>45824</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>45824</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>45824</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>45824</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>45846</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>45846</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>45846</v>
       </c>
@@ -1975,7 +1979,7 @@
       </c>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45846</v>
       </c>
@@ -2024,7 +2028,7 @@
       </c>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>45846</v>
       </c>
@@ -2072,7 +2076,7 @@
       </c>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>45846</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>45846</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>45882</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>45882</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>45882</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>45882</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>45882</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>45882</v>
       </c>
@@ -2467,7 +2471,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45882</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>45895</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>45895</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>45895</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>45905</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>45905</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>45905</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>45909</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>45909</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>45909</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>45910</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>45910</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>45910</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>45910</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>45910</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>45910</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>45910</v>
       </c>
@@ -4034,7 +4038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>45923</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>45923</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>45923</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>45924</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>45924</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>45924</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>45924</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>45924</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>45924</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>45924</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>45938</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>45938</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>45938</v>
       </c>
@@ -4930,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>45938</v>
       </c>
@@ -4977,7 +4981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>45938</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>45938</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>45938</v>
       </c>
@@ -5134,22 +5138,394 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="23">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1800</v>
+      </c>
+      <c r="E75">
+        <v>55</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>23</v>
+      </c>
+      <c r="Q75">
+        <v>7.79</v>
+      </c>
+      <c r="R75">
+        <v>105.6</v>
+      </c>
+      <c r="S75">
+        <v>0.05</v>
+      </c>
+      <c r="U75">
+        <v>0.8</v>
+      </c>
+      <c r="V75" s="25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="23">
+        <v>45932</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1800</v>
+      </c>
+      <c r="E76">
+        <v>58</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>23.3</v>
+      </c>
+      <c r="Q76">
+        <v>7.79</v>
+      </c>
+      <c r="R76">
+        <v>105.5</v>
+      </c>
+      <c r="S76">
+        <v>0.05</v>
+      </c>
+      <c r="U76">
+        <v>0.7</v>
+      </c>
+      <c r="V76" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="A77" s="23">
+        <v>45932</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>1800</v>
+      </c>
+      <c r="E77">
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>23.5</v>
+      </c>
+      <c r="Q77">
+        <v>7.85</v>
+      </c>
+      <c r="R77">
+        <v>106</v>
+      </c>
+      <c r="S77">
+        <v>0.05</v>
+      </c>
+      <c r="U77">
+        <v>0.8</v>
+      </c>
+      <c r="V77" s="25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="23">
+        <v>45959</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1800</v>
+      </c>
+      <c r="E78">
+        <v>85</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>13</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
+        <v>14.5</v>
+      </c>
+      <c r="Q78">
+        <v>9.6</v>
+      </c>
+      <c r="R78">
+        <v>90.2</v>
+      </c>
+      <c r="S78">
+        <v>0.05</v>
+      </c>
+      <c r="U78">
+        <v>1.2</v>
+      </c>
+      <c r="V78" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="23">
+        <v>45959</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1800</v>
+      </c>
+      <c r="E79">
+        <v>71</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>2</v>
+      </c>
+      <c r="P79">
+        <v>14.6</v>
+      </c>
+      <c r="Q79">
+        <v>9.66</v>
+      </c>
+      <c r="R79">
+        <v>85.4</v>
+      </c>
+      <c r="S79">
+        <v>0.05</v>
+      </c>
+      <c r="U79">
+        <v>0.8</v>
+      </c>
+      <c r="V79" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+      <c r="A80" s="23">
+        <v>45959</v>
+      </c>
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>1800</v>
+      </c>
+      <c r="E80">
+        <v>44</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>24</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>14.8</v>
+      </c>
+      <c r="Q80">
+        <v>9.68</v>
+      </c>
+      <c r="R80">
+        <v>85.1</v>
+      </c>
+      <c r="S80">
+        <v>0.05</v>
+      </c>
+      <c r="U80">
+        <v>0.8</v>
+      </c>
+      <c r="V80" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
@@ -5215,7 +5591,13 @@
       <c r="A101" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V74" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}"/>
+  <autoFilter ref="A1:V80" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="GPD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V101">
     <sortCondition ref="A2:A101"/>
   </sortState>
@@ -5229,8 +5611,8 @@
   <dimension ref="A1:H630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E519" sqref="E519"/>
+      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E525" sqref="E525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14767,12 +15149,24 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="23"/>
+      <c r="E522">
+        <f>MIN(E2:E519)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
+      <c r="E523">
+        <f>MAX(E2:E519)</f>
+        <v>205</v>
+      </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
+      <c r="E524">
+        <f>AVERAGE(E2:E519)</f>
+        <v>74.776061776061781</v>
+      </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="23"/>

--- a/JuvShad_2025.xlsx
+++ b/JuvShad_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Desktop\SCDNR\Analyses\JAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scdnradmin\data\Bonneau\Userdata\HoffmanKy\SCDNR\Compliance report\JAI-Shad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C09397-2661-4079-A253-EC2D58502F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC56A7-3DE9-4E53-8A67-DECC8496411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13155" yWindow="0" windowWidth="13470" windowHeight="14265" activeTab="1" xr2:uid="{1FBA753E-B769-4D4B-8AAC-2961CC58B177}"/>
+    <workbookView xWindow="-19320" yWindow="330" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{1FBA753E-B769-4D4B-8AAC-2961CC58B177}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -1027,12 +1027,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q88" sqref="Q88"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>45810</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>45810</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>45810</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>45810</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>45810</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>45810</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45810</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>45824</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>45824</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>45824</v>
       </c>
@@ -1634,7 +1633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>45824</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>45824</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>45824</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>45824</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>45846</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>45846</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>45846</v>
       </c>
@@ -1979,7 +1978,7 @@
       </c>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45846</v>
       </c>
@@ -2028,7 +2027,7 @@
       </c>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>45846</v>
       </c>
@@ -2076,7 +2075,7 @@
       </c>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>45846</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>45846</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>45882</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>45882</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>45882</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>45882</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>45882</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>45882</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45882</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>45895</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>45895</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>45895</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>45905</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>45905</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>45905</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>45909</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>45909</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>45909</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>45910</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>45910</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>45910</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>45910</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>45910</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>45910</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>45910</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>45923</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>45923</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>45923</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>45924</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>45924</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>45924</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>45924</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>45924</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>45924</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>45924</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>45938</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>45938</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>45938</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>45938</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>45938</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>45938</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>45938</v>
       </c>
@@ -5527,52 +5526,390 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>900</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>13</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>19.2</v>
+      </c>
+      <c r="Q81">
+        <v>8.02</v>
+      </c>
+      <c r="R81">
+        <v>111.4</v>
+      </c>
+      <c r="S81">
+        <v>0.1</v>
+      </c>
+      <c r="U81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>900</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>17</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>21</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83">
+        <v>900</v>
+      </c>
+      <c r="E83">
+        <v>62</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>15</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84">
+        <v>900</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>20</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85">
+        <v>900</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86">
+        <v>900</v>
+      </c>
+      <c r="E86">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>18.8</v>
+      </c>
+      <c r="Q86">
+        <v>8.42</v>
+      </c>
+      <c r="R86">
+        <v>93.3</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87">
+        <v>900</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -5587,19 +5924,10 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:V80" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GPD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V101">
-    <sortCondition ref="A2:A101"/>
+  <autoFilter ref="A1:V80" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V100">
+    <sortCondition ref="A2:A100"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5610,9 +5938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35612E1-7B55-481E-B532-1056CB27A704}">
   <dimension ref="A1:H630"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A473" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E525" sqref="E525"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K528" sqref="K528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15149,24 +15477,12 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="23"/>
-      <c r="E522">
-        <f>MIN(E2:E519)</f>
-        <v>31</v>
-      </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
-      <c r="E523">
-        <f>MAX(E2:E519)</f>
-        <v>205</v>
-      </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
-      <c r="E524">
-        <f>AVERAGE(E2:E519)</f>
-        <v>74.776061776061781</v>
-      </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="23"/>

--- a/JuvShad_2025.xlsx
+++ b/JuvShad_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scdnradmin\data\Bonneau\Userdata\HoffmanKy\SCDNR\Compliance report\JAI-Shad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Desktop\SCDNR\Analyses\JAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC56A7-3DE9-4E53-8A67-DECC8496411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7027F47A-A69A-4B06-9959-6D2F237630C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="330" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{1FBA753E-B769-4D4B-8AAC-2961CC58B177}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="13470" windowHeight="14265" activeTab="1" xr2:uid="{1FBA753E-B769-4D4B-8AAC-2961CC58B177}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lengths!$A$1:$F$630</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Shad&amp;herring'!$A$1:$V$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Shad&amp;herring'!$A$1:$V$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>100% cloud</t>
+  </si>
+  <si>
+    <t>Edisto</t>
   </si>
 </sst>
 </file>
@@ -1027,11 +1030,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>45846</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>45846</v>
       </c>
@@ -1978,7 +1981,7 @@
       </c>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45846</v>
       </c>
@@ -2027,7 +2030,7 @@
       </c>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>45846</v>
       </c>
@@ -2075,7 +2078,7 @@
       </c>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>45846</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>45846</v>
       </c>
@@ -2173,101 +2176,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
-        <v>45882</v>
+        <v>45874</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>45874</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1800</v>
+      </c>
+      <c r="E24">
         <v>7</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>45882</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>900</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
       <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>8</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>38</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>45882</v>
       </c>
@@ -2275,46 +2230,46 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>900</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>5</v>
-      </c>
-      <c r="K25">
-        <v>13</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>23</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>45882</v>
       </c>
@@ -2322,31 +2277,31 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>900</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2355,30 +2310,30 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>45882</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>900</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2387,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2402,33 +2357,33 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>45882</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>900</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2440,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2449,28 +2404,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>24</v>
-      </c>
-      <c r="Q28">
-        <v>6.98</v>
-      </c>
-      <c r="R28">
-        <v>78</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45882</v>
       </c>
@@ -2478,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>900</v>
@@ -2502,122 +2442,119 @@
         <v>0</v>
       </c>
       <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>45882</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>900</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>45890</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1800</v>
-      </c>
-      <c r="E30">
-        <v>59</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
       <c r="H30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>2</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>27.9</v>
+        <v>24</v>
       </c>
       <c r="Q30">
-        <v>6.96</v>
+        <v>6.98</v>
       </c>
       <c r="R30">
-        <v>103.8</v>
+        <v>78</v>
       </c>
       <c r="S30">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0.6</v>
-      </c>
-      <c r="V30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
-        <v>45890</v>
+        <v>45882</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>900</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>1800</v>
-      </c>
-      <c r="E31">
-        <v>9</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2626,509 +2563,239 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>10</v>
-      </c>
-      <c r="P31">
-        <v>27.9</v>
-      </c>
-      <c r="Q31">
-        <v>6.96</v>
-      </c>
-      <c r="R31">
-        <v>102.7</v>
-      </c>
-      <c r="S31">
-        <v>0.04</v>
-      </c>
-      <c r="U31">
-        <v>0.6</v>
-      </c>
-      <c r="V31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
-        <v>45890</v>
+        <v>45882</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1800</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>14</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>6</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32">
-        <v>28</v>
-      </c>
-      <c r="Q32">
-        <v>6.93</v>
-      </c>
-      <c r="R32">
-        <v>102.7</v>
-      </c>
-      <c r="S32">
-        <v>0.04</v>
-      </c>
-      <c r="U32">
-        <v>0.6</v>
-      </c>
-      <c r="V32" t="s">
-        <v>45</v>
+      <c r="T32">
+        <v>1770</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
-        <v>45895</v>
+        <v>45882</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>1800</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>25.2</v>
-      </c>
-      <c r="Q33">
-        <v>6.09</v>
-      </c>
-      <c r="R33">
-        <v>74.3</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0.85</v>
-      </c>
-      <c r="V33" t="s">
-        <v>47</v>
+      <c r="T33">
+        <v>1770</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
-        <v>45895</v>
+        <v>45882</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>1800</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>25.4</v>
-      </c>
-      <c r="Q34">
-        <v>6.79</v>
-      </c>
-      <c r="R34">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0.9</v>
-      </c>
-      <c r="V34" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1770</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
-        <v>45895</v>
+        <v>45889</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1800</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>26.3</v>
-      </c>
-      <c r="Q35">
-        <v>6.82</v>
-      </c>
-      <c r="R35">
-        <v>71.2</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35" t="s">
-        <v>46</v>
+      <c r="T35">
+        <v>2130</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
-        <v>45896</v>
+        <v>45889</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>1800</v>
       </c>
       <c r="E36">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
-        <v>8</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>5</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>6</v>
-      </c>
-      <c r="P36">
-        <v>25.7</v>
-      </c>
-      <c r="Q36">
-        <v>7.53</v>
-      </c>
-      <c r="R36">
-        <v>105.9</v>
-      </c>
-      <c r="S36">
-        <v>0.05</v>
-      </c>
-      <c r="U36">
-        <v>0.5</v>
-      </c>
-      <c r="V36" t="s">
-        <v>46</v>
+      <c r="T36">
+        <v>2130</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
-        <v>45896</v>
+        <v>45889</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>1800</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>9</v>
-      </c>
-      <c r="H37">
-        <v>9</v>
-      </c>
-      <c r="I37">
-        <v>7</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>5</v>
-      </c>
-      <c r="P37">
-        <v>26</v>
-      </c>
-      <c r="Q37">
-        <v>7.56</v>
-      </c>
-      <c r="R37">
-        <v>106</v>
-      </c>
-      <c r="S37">
-        <v>0.05</v>
-      </c>
-      <c r="U37">
-        <v>0.5</v>
-      </c>
-      <c r="V37" t="s">
-        <v>46</v>
+      <c r="T37">
+        <v>2130</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
-        <v>45896</v>
+        <v>45890</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1800</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="Q38">
-        <v>7.5</v>
+        <v>6.96</v>
       </c>
       <c r="R38">
-        <v>106.5</v>
+        <v>103.8</v>
       </c>
       <c r="S38">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="U38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="V38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
-        <v>45904</v>
+        <v>45890</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>1800</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3137,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3146,178 +2813,178 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P39">
-        <v>25.2</v>
+        <v>27.9</v>
       </c>
       <c r="Q39">
-        <v>7.76</v>
+        <v>6.96</v>
       </c>
       <c r="R39">
-        <v>104.7</v>
+        <v>102.7</v>
       </c>
       <c r="S39">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="U39">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="V39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
-        <v>45904</v>
+        <v>45890</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>1800</v>
       </c>
       <c r="E40">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
         <v>2</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
       <c r="P40">
-        <v>26.1</v>
+        <v>28</v>
       </c>
       <c r="Q40">
-        <v>7.98</v>
+        <v>6.93</v>
       </c>
       <c r="R40">
-        <v>107.5</v>
+        <v>102.7</v>
       </c>
       <c r="S40">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="U40">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="V40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1800</v>
       </c>
       <c r="E41">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
       <c r="L41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q41">
-        <v>8.11</v>
+        <v>6.09</v>
       </c>
       <c r="R41">
-        <v>108.2</v>
+        <v>74.3</v>
       </c>
       <c r="S41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="V41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>1800</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3329,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3338,39 +3005,39 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>24.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q42">
-        <v>7.07</v>
+        <v>6.79</v>
       </c>
       <c r="R42">
-        <v>78.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0.6</v>
-      </c>
-      <c r="V42" s="25" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="V42" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>1800</v>
@@ -3379,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3394,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3409,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>24.8</v>
+        <v>26.3</v>
       </c>
       <c r="Q43">
-        <v>6.98</v>
+        <v>6.82</v>
       </c>
       <c r="R43">
-        <v>79.5</v>
+        <v>71.2</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="V43" t="s">
         <v>46</v>
@@ -3429,64 +3096,64 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1800</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
         <v>5</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q44">
-        <v>6.02</v>
+        <v>7.53</v>
       </c>
       <c r="R44">
-        <v>72.8</v>
+        <v>105.9</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V44" t="s">
         <v>46</v>
@@ -3494,64 +3161,64 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
-        <v>45909</v>
+        <v>45896</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>1800</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>5</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
       <c r="P45">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="Q45">
-        <v>4.9400000000000004</v>
+        <v>7.56</v>
       </c>
       <c r="R45">
-        <v>82.5</v>
+        <v>106</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U45">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="V45" t="s">
         <v>46</v>
@@ -3559,13 +3226,13 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
-        <v>45909</v>
+        <v>45896</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>1800</v>
@@ -3574,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3595,60 +3262,60 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P46">
-        <v>25.2</v>
+        <v>26.2</v>
       </c>
       <c r="Q46">
-        <v>8.08</v>
+        <v>7.5</v>
       </c>
       <c r="R46">
-        <v>83.2</v>
+        <v>106.5</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U46">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="V46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1800</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3657,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3669,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q47">
-        <v>7.06</v>
+        <v>7.76</v>
       </c>
       <c r="R47">
-        <v>83.2</v>
+        <v>104.7</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U47">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="V47" t="s">
         <v>46</v>
@@ -3689,452 +3356,434 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E48">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
         <v>8</v>
       </c>
-      <c r="F48">
-        <v>6</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
       <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
         <v>2</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>40</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>26.1</v>
+      </c>
+      <c r="Q48">
+        <v>7.98</v>
+      </c>
+      <c r="R48">
+        <v>107.5</v>
+      </c>
+      <c r="S48">
+        <v>0.05</v>
+      </c>
+      <c r="U48">
+        <v>1.2</v>
+      </c>
+      <c r="V48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>12</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>26.8</v>
+      </c>
+      <c r="Q49">
+        <v>8.11</v>
+      </c>
+      <c r="R49">
+        <v>108.2</v>
+      </c>
+      <c r="S49">
+        <v>0.05</v>
+      </c>
+      <c r="U49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
-        <v>45910</v>
+        <v>45905</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>24.6</v>
+      </c>
+      <c r="Q50">
+        <v>7.07</v>
+      </c>
+      <c r="R50">
+        <v>78.8</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0.6</v>
+      </c>
+      <c r="V50" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>45905</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1800</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>24.8</v>
+      </c>
+      <c r="Q51">
+        <v>6.98</v>
+      </c>
+      <c r="R51">
+        <v>79.5</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0.7</v>
+      </c>
+      <c r="V51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>45905</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1800</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>26.5</v>
+      </c>
+      <c r="Q52">
+        <v>6.02</v>
+      </c>
+      <c r="R52">
+        <v>72.8</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>45905</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1800</v>
+      </c>
+      <c r="E53">
         <v>6</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>7</v>
-      </c>
-      <c r="J50">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>45905</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="K50">
-        <v>76</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>30</v>
-      </c>
-      <c r="O50">
-        <v>6</v>
-      </c>
-      <c r="P50">
-        <v>25</v>
-      </c>
-      <c r="Q50">
-        <v>6.18</v>
-      </c>
-      <c r="R50">
-        <v>101.9</v>
-      </c>
-      <c r="U50">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <v>45910</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51">
-        <v>900</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>8</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>33</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
-        <v>45910</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52">
-        <v>900</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>6</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>10</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>15</v>
-      </c>
-      <c r="P52">
-        <v>24.4</v>
-      </c>
-      <c r="Q52">
-        <v>6.85</v>
-      </c>
-      <c r="R52">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
-        <v>45910</v>
-      </c>
-      <c r="B53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53">
-        <v>900</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>4</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
-        <v>45910</v>
-      </c>
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
       <c r="D54">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>20</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
-        <v>45923</v>
+        <v>45905</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>1800</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>2</v>
-      </c>
-      <c r="P55">
-        <v>25.5</v>
-      </c>
-      <c r="Q55">
-        <v>7.6</v>
-      </c>
-      <c r="R55">
-        <v>88.9</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1800</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -4143,184 +3792,193 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="Q56">
-        <v>7.43</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="R56">
-        <v>89.7</v>
+        <v>82.5</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="V56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>1800</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q57">
-        <v>7.46</v>
+        <v>8.08</v>
       </c>
       <c r="R57">
-        <v>90.3</v>
+        <v>83.2</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="U57">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="V57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
-        <v>45924</v>
+        <v>45909</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1800</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>25.4</v>
+      </c>
+      <c r="Q58">
+        <v>7.06</v>
+      </c>
+      <c r="R58">
+        <v>83.2</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0.7</v>
+      </c>
+      <c r="V58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
         <v>28</v>
-      </c>
-      <c r="D58">
-        <v>900</v>
-      </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>22</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>8</v>
-      </c>
-      <c r="P58">
-        <v>25.6</v>
-      </c>
-      <c r="Q58">
-        <v>6.33</v>
-      </c>
-      <c r="R58">
-        <v>114.8</v>
-      </c>
-      <c r="S58">
-        <v>0.1</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
-        <v>45924</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
       </c>
       <c r="D59">
         <v>900</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4329,42 +3987,42 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D60">
         <v>900</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -4373,45 +4031,45 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="O60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61">
         <v>900</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>7</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>9</v>
-      </c>
       <c r="J61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4420,48 +4078,60 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O61">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="P61">
+        <v>25</v>
+      </c>
+      <c r="Q61">
+        <v>6.18</v>
+      </c>
+      <c r="R61">
+        <v>101.9</v>
+      </c>
+      <c r="U61">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D62">
         <v>900</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4470,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B63" t="s">
         <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63">
         <v>900</v>
@@ -4490,22 +4160,22 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4514,63 +4184,57 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P63">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q63">
-        <v>6.13</v>
+        <v>6.85</v>
       </c>
       <c r="R63">
-        <v>96.4</v>
-      </c>
-      <c r="S63">
-        <v>0.1</v>
-      </c>
-      <c r="U63">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64">
         <v>900</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4579,45 +4243,45 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
       </c>
       <c r="D65">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E65">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4626,261 +4290,135 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>25.4</v>
-      </c>
-      <c r="Q65">
-        <v>7.5</v>
-      </c>
-      <c r="R65">
-        <v>119.1</v>
-      </c>
-      <c r="S65">
-        <v>0.05</v>
-      </c>
-      <c r="U65">
-        <v>1.4</v>
-      </c>
-      <c r="V65" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1800</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
-        <v>9</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="I66">
-        <v>7</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>2</v>
-      </c>
-      <c r="L66">
-        <v>3</v>
-      </c>
-      <c r="M66">
-        <v>7</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>26.4</v>
-      </c>
-      <c r="Q66">
-        <v>7.86</v>
-      </c>
-      <c r="R66">
-        <v>118.6</v>
-      </c>
-      <c r="S66">
-        <v>0.05</v>
-      </c>
-      <c r="U66">
-        <v>1.2</v>
-      </c>
-      <c r="V66" t="s">
-        <v>48</v>
+      <c r="T66">
+        <v>932</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>1800</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67">
-        <v>12</v>
-      </c>
-      <c r="H67">
-        <v>4</v>
-      </c>
-      <c r="I67">
-        <v>7</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>2</v>
-      </c>
-      <c r="P67">
-        <v>27</v>
-      </c>
-      <c r="Q67">
-        <v>7.9</v>
-      </c>
-      <c r="R67">
-        <v>119.7</v>
-      </c>
-      <c r="S67">
-        <v>0.05</v>
-      </c>
-      <c r="U67">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V67" t="s">
-        <v>51</v>
+      <c r="T67">
+        <v>932</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
-        <v>45938</v>
+        <v>45910</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>23</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>7</v>
+      <c r="T68">
+        <v>932</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
-        <v>45938</v>
+        <v>45923</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <v>2</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>25</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>6</v>
-      </c>
       <c r="P69">
-        <v>23.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q69">
-        <v>6.92</v>
+        <v>7.6</v>
       </c>
       <c r="R69">
-        <v>123.1</v>
+        <v>88.9</v>
       </c>
       <c r="S69">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -4888,40 +4426,40 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
-        <v>45938</v>
+        <v>45923</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>5</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>24</v>
-      </c>
       <c r="L70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4930,71 +4468,101 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <v>25.6</v>
+      </c>
+      <c r="Q70">
+        <v>7.43</v>
+      </c>
+      <c r="R70">
+        <v>89.7</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
-        <v>45938</v>
+        <v>45923</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>25.9</v>
+      </c>
+      <c r="Q71">
+        <v>7.46</v>
+      </c>
+      <c r="R71">
+        <v>90.3</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
-        <v>45938</v>
+        <v>45924</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>900</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5006,13 +4574,13 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -5021,48 +4589,63 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="P72">
+        <v>25.6</v>
+      </c>
+      <c r="Q72">
+        <v>6.33</v>
+      </c>
+      <c r="R72">
+        <v>114.8</v>
+      </c>
+      <c r="S72">
+        <v>0.1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
-        <v>45938</v>
+        <v>45924</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D73">
         <v>900</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -5071,57 +4654,42 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>23</v>
-      </c>
-      <c r="Q73">
-        <v>6.88</v>
-      </c>
-      <c r="R73">
-        <v>104.8</v>
-      </c>
-      <c r="S73">
-        <v>0.1</v>
-      </c>
-      <c r="U73">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
-        <v>45938</v>
+        <v>45924</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D74">
         <v>900</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -5130,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74">
         <v>5</v>
@@ -5138,612 +4706,612 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
       </c>
       <c r="D75">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E75">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
-        <v>23</v>
-      </c>
-      <c r="Q75">
-        <v>7.79</v>
-      </c>
-      <c r="R75">
-        <v>105.6</v>
-      </c>
-      <c r="S75">
-        <v>0.05</v>
-      </c>
-      <c r="U75">
-        <v>0.8</v>
-      </c>
-      <c r="V75" s="25" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
       </c>
       <c r="D76">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E76">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>23.3</v>
-      </c>
-      <c r="Q76">
-        <v>7.79</v>
-      </c>
-      <c r="R76">
-        <v>105.5</v>
-      </c>
-      <c r="S76">
-        <v>0.05</v>
-      </c>
-      <c r="U76">
-        <v>0.7</v>
-      </c>
-      <c r="V76" s="25" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
       </c>
       <c r="D77">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E77">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
         <v>2</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>5</v>
-      </c>
       <c r="P77">
-        <v>23.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q77">
-        <v>7.85</v>
+        <v>6.13</v>
       </c>
       <c r="R77">
-        <v>106</v>
+        <v>96.4</v>
       </c>
       <c r="S77">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="U77">
-        <v>0.8</v>
-      </c>
-      <c r="V77" s="25" t="s">
-        <v>48</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
-        <v>45959</v>
+        <v>45924</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E78">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>35</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
         <v>2</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
-      </c>
-      <c r="P78">
-        <v>14.5</v>
-      </c>
-      <c r="Q78">
-        <v>9.6</v>
-      </c>
-      <c r="R78">
-        <v>90.2</v>
-      </c>
-      <c r="S78">
-        <v>0.05</v>
-      </c>
-      <c r="U78">
-        <v>1.2</v>
-      </c>
-      <c r="V78" s="25" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
-        <v>45959</v>
+        <v>45924</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>1800</v>
       </c>
       <c r="E79">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
         <v>5</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>14.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q79">
-        <v>9.66</v>
+        <v>7.5</v>
       </c>
       <c r="R79">
-        <v>85.4</v>
+        <v>119.1</v>
       </c>
       <c r="S79">
         <v>0.05</v>
       </c>
       <c r="U79">
-        <v>0.8</v>
-      </c>
-      <c r="V79" s="25" t="s">
-        <v>52</v>
+        <v>1.4</v>
+      </c>
+      <c r="V79" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
-        <v>45959</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="s">
         <v>41</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>1800</v>
       </c>
       <c r="E80">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P80">
-        <v>14.8</v>
+        <v>26.4</v>
       </c>
       <c r="Q80">
-        <v>9.68</v>
+        <v>7.86</v>
       </c>
       <c r="R80">
-        <v>85.1</v>
+        <v>118.6</v>
       </c>
       <c r="S80">
         <v>0.05</v>
       </c>
       <c r="U80">
+        <v>1.2</v>
+      </c>
+      <c r="V80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>45924</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>1800</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>12</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>7</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>27</v>
+      </c>
+      <c r="Q81">
+        <v>7.9</v>
+      </c>
+      <c r="R81">
+        <v>119.7</v>
+      </c>
+      <c r="S81">
+        <v>0.05</v>
+      </c>
+      <c r="U81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <v>45932</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1800</v>
+      </c>
+      <c r="E82">
+        <v>55</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>14</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>23</v>
+      </c>
+      <c r="Q82">
+        <v>7.79</v>
+      </c>
+      <c r="R82">
+        <v>105.6</v>
+      </c>
+      <c r="S82">
+        <v>0.05</v>
+      </c>
+      <c r="U82">
         <v>0.8</v>
       </c>
-      <c r="V80" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
-        <v>45952</v>
-      </c>
-      <c r="B81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="V82" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>45932</v>
+      </c>
+      <c r="B83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1800</v>
+      </c>
+      <c r="E83">
+        <v>58</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>7</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83">
+        <v>23.3</v>
+      </c>
+      <c r="Q83">
+        <v>7.79</v>
+      </c>
+      <c r="R83">
+        <v>105.5</v>
+      </c>
+      <c r="S83">
+        <v>0.05</v>
+      </c>
+      <c r="U83">
+        <v>0.7</v>
+      </c>
+      <c r="V83" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
+        <v>45932</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>1800</v>
+      </c>
+      <c r="E84">
+        <v>49</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>5</v>
+      </c>
+      <c r="P84">
+        <v>23.5</v>
+      </c>
+      <c r="Q84">
+        <v>7.85</v>
+      </c>
+      <c r="R84">
+        <v>106</v>
+      </c>
+      <c r="S84">
+        <v>0.05</v>
+      </c>
+      <c r="U84">
+        <v>0.8</v>
+      </c>
+      <c r="V84" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>45938</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
         <v>28</v>
-      </c>
-      <c r="D81">
-        <v>900</v>
-      </c>
-      <c r="E81">
-        <v>5</v>
-      </c>
-      <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81">
-        <v>5</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>13</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>19.2</v>
-      </c>
-      <c r="Q81">
-        <v>8.02</v>
-      </c>
-      <c r="R81">
-        <v>111.4</v>
-      </c>
-      <c r="S81">
-        <v>0.1</v>
-      </c>
-      <c r="U81">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
-        <v>45952</v>
-      </c>
-      <c r="B82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82">
-        <v>900</v>
-      </c>
-      <c r="E82">
-        <v>5</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>15</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>17</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>21</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
-        <v>45952</v>
-      </c>
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83">
-        <v>900</v>
-      </c>
-      <c r="E83">
-        <v>62</v>
-      </c>
-      <c r="F83">
-        <v>7</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>4</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>15</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
-        <v>45952</v>
-      </c>
-      <c r="B84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84">
-        <v>900</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>4</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>7</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>20</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
-        <v>45952</v>
-      </c>
-      <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" t="s">
-        <v>36</v>
       </c>
       <c r="D85">
         <v>900</v>
       </c>
       <c r="E85">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5755,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -5773,42 +5341,42 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
-        <v>45952</v>
+        <v>45938</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D86">
         <v>900</v>
       </c>
       <c r="E86">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -5820,114 +5388,832 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P86">
-        <v>18.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q86">
-        <v>8.42</v>
+        <v>6.92</v>
       </c>
       <c r="R86">
-        <v>93.3</v>
+        <v>123.1</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U86">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
-        <v>45952</v>
+        <v>45938</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D87">
         <v>900</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>24</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="23">
+        <v>45938</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88">
+        <v>900</v>
+      </c>
+      <c r="E88">
         <v>5</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>8</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>41</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
+        <v>45938</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89">
+        <v>900</v>
+      </c>
+      <c r="E89">
         <v>2</v>
       </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
+        <v>45938</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>900</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>31</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>16</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>23</v>
+      </c>
+      <c r="Q90">
+        <v>6.88</v>
+      </c>
+      <c r="R90">
+        <v>104.8</v>
+      </c>
+      <c r="S90">
+        <v>0.1</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
+        <v>45938</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91">
+        <v>900</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>32</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>15</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92">
+        <v>900</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>13</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>19.2</v>
+      </c>
+      <c r="Q92">
+        <v>8.02</v>
+      </c>
+      <c r="R92">
+        <v>111.4</v>
+      </c>
+      <c r="S92">
+        <v>0.1</v>
+      </c>
+      <c r="U92">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>900</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>21</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>900</v>
+      </c>
+      <c r="E94">
+        <v>62</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>15</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95">
+        <v>900</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>20</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96">
+        <v>900</v>
+      </c>
+      <c r="E96">
+        <v>12</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97">
+        <v>900</v>
+      </c>
+      <c r="E97">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>18.8</v>
+      </c>
+      <c r="Q97">
+        <v>8.42</v>
+      </c>
+      <c r="R97">
+        <v>93.3</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
+        <v>45952</v>
+      </c>
+      <c r="B98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98">
+        <v>900</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
+        <v>45959</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1800</v>
+      </c>
+      <c r="E99">
+        <v>85</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>13</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="P99">
+        <v>14.5</v>
+      </c>
+      <c r="Q99">
+        <v>9.6</v>
+      </c>
+      <c r="R99">
+        <v>90.2</v>
+      </c>
+      <c r="S99">
+        <v>0.05</v>
+      </c>
+      <c r="U99">
+        <v>1.2</v>
+      </c>
+      <c r="V99" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
+        <v>45959</v>
+      </c>
+      <c r="B100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>1800</v>
+      </c>
+      <c r="E100">
+        <v>71</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>10</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <v>14.6</v>
+      </c>
+      <c r="Q100">
+        <v>9.66</v>
+      </c>
+      <c r="R100">
+        <v>85.4</v>
+      </c>
+      <c r="S100">
+        <v>0.05</v>
+      </c>
+      <c r="U100">
+        <v>0.8</v>
+      </c>
+      <c r="V100" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
+        <v>45959</v>
+      </c>
+      <c r="B101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>1800</v>
+      </c>
+      <c r="E101">
+        <v>44</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>24</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>14.8</v>
+      </c>
+      <c r="Q101">
+        <v>9.68</v>
+      </c>
+      <c r="R101">
+        <v>85.1</v>
+      </c>
+      <c r="S101">
+        <v>0.05</v>
+      </c>
+      <c r="U101">
+        <v>0.8</v>
+      </c>
+      <c r="V101" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V80" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V100">
-    <sortCondition ref="A2:A100"/>
+  <autoFilter ref="A1:V87" xr:uid="{A659B29B-63D0-4D9B-8859-FD2EB03753E2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V101">
+    <sortCondition ref="A2:A101"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5938,7 +6224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35612E1-7B55-481E-B532-1056CB27A704}">
   <dimension ref="A1:H630"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K528" sqref="K528"/>
     </sheetView>
